--- a/filename formats.xlsx
+++ b/filename formats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B78D213-4D25-4F45-83EB-082A7D6DE746}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF815A37-1130-4132-A65B-BC49F96B3A8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>ENI</t>
   </si>
@@ -173,6 +173,111 @@
   </si>
   <si>
     <t>in file and filename</t>
+  </si>
+  <si>
+    <t>Content of DDG files</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>DDG</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>OPERATOR_CODE</t>
+  </si>
+  <si>
+    <t>kOSD -- GZEO/ENID/</t>
+  </si>
+  <si>
+    <t>DP_ENID_EUPX_20180430_5.csv</t>
+  </si>
+  <si>
+    <t>DATA OF CREATION</t>
+  </si>
+  <si>
+    <t>DATA OF METERINGS</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>VER</t>
+  </si>
+  <si>
+    <t>HOUR NUMBERS</t>
+  </si>
+  <si>
+    <t>1-24+2A</t>
+  </si>
+  <si>
+    <t>CONTENT OF LINE</t>
+  </si>
+  <si>
+    <t>NR PPE</t>
+  </si>
+  <si>
+    <t>ENID_4011004953</t>
+  </si>
+  <si>
+    <t>CP --- ???</t>
+  </si>
+  <si>
+    <t>NR OF HR IN DAY</t>
+  </si>
+  <si>
+    <t>23-25</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>with status -- 4.660,+</t>
+  </si>
+  <si>
+    <t>SQL TABLE</t>
+  </si>
+  <si>
+    <t>DDG_DAY</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>NUMBER OF HOURS</t>
+  </si>
+  <si>
+    <t>VOL PER HOUR</t>
+  </si>
+  <si>
+    <t>STATUS OF HOURS</t>
+  </si>
+  <si>
+    <t>4.710</t>
+  </si>
+  <si>
+    <t>"-/+"</t>
+  </si>
+  <si>
+    <t>A I</t>
+  </si>
+  <si>
+    <t>ENI/PRO/GZE</t>
+  </si>
+  <si>
+    <t>osd</t>
   </si>
 </sst>
 </file>
@@ -202,9 +307,55 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -214,10 +365,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -498,24 +657,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -538,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -564,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -590,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -616,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -639,7 +808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -662,7 +831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -687,8 +856,9 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -710,8 +880,9 @@
       <c r="G9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -736,8 +907,9 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -750,8 +922,244 @@
       <c r="F11">
         <v>11</v>
       </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43226.982638888891</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43220</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="4">
+        <v>43220</v>
+      </c>
+      <c r="P17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>